--- a/BuildGuide.xlsx
+++ b/BuildGuide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityXR\InteractionExerciser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3623F0-247B-4D24-BAE9-5C279B1F7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A5E71-E855-4B32-AE5D-60ACE207BFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3284B90C-425F-4DBC-9D83-E1ED31F7A9C3}"/>
+    <workbookView xWindow="-27345" yWindow="0" windowWidth="27705" windowHeight="15435" activeTab="1" xr2:uid="{3284B90C-425F-4DBC-9D83-E1ED31F7A9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="XRToolkit-Baseline" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>Click and change color from white</t>
   </si>
@@ -353,6 +353,48 @@
   </si>
   <si>
     <t>Can I add a UI to grab Debug.Log statements?</t>
+  </si>
+  <si>
+    <t>12.25.21</t>
+  </si>
+  <si>
+    <t>Took the day off and walked 13.1 miles. First half marathon. Might have reignited the baker's cyst. Fearful, yet determined.</t>
+  </si>
+  <si>
+    <t>12.26.21</t>
+  </si>
+  <si>
+    <t>Fixed all the problems with Playerinput. Turns out the default Action map I was using did not have any actions set up</t>
+  </si>
+  <si>
+    <t>for the right hand. Seems you need that. Once that was setup, everything else fell into place</t>
+  </si>
+  <si>
+    <t>Same three ideas as back on the 24th:</t>
+  </si>
+  <si>
+    <t>PlayerInputContainer - Uses the player input component and unity events</t>
+  </si>
+  <si>
+    <t>ActionReferenceContainer - Uses Serialized fields to map actions/references via the inspector</t>
+  </si>
+  <si>
+    <t>CodeInputContainer - Uses and All-Code solution by programattically creating actions</t>
+  </si>
+  <si>
+    <t>All three are now in separate scenes in the /Game/Scenes/InputScences folder</t>
+  </si>
+  <si>
+    <t>ActionReferenceTest</t>
+  </si>
+  <si>
+    <t>PlayerInputTest</t>
+  </si>
+  <si>
+    <t>CodeControllerTest</t>
+  </si>
+  <si>
+    <t>Plus the all-in-one scene, SceneOne, which does not work due to stuff I didn't know about on the 24th</t>
   </si>
 </sst>
 </file>
@@ -819,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBB9885-C043-4003-B277-7D183E5A11AE}">
   <dimension ref="B2:T82"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1270,103 +1312,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5E6E62-6512-427C-8E07-54098D30411B}">
-  <dimension ref="C2:G23"/>
+  <dimension ref="C3:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
         <v>105</v>
       </c>
     </row>
